--- a/数据分析/data.xlsx
+++ b/数据分析/data.xlsx
@@ -8,7 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -117,9 +121,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -270,12 +281,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -605,55 +622,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,75 +682,81 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1272,11 +1292,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1289,7 +1309,7 @@
     <col min="11" max="12" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" ht="18.75" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,843 +1347,867 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+    <row r="2" hidden="1" spans="1:12">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>16</v>
       </c>
-      <c r="E2" s="1">
-        <v>72</v>
-      </c>
-      <c r="F2" s="1">
-        <v>768</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5.94</v>
-      </c>
-      <c r="H2" s="1">
-        <v>93.56</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.0825</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.1218</v>
-      </c>
-      <c r="K2" s="3">
-        <v>45705.4333333333</v>
-      </c>
-      <c r="L2" s="3">
-        <v>45705.4333333333</v>
+      <c r="E2" s="2">
+        <v>68.4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>864</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10.06</v>
+      </c>
+      <c r="H2" s="2">
+        <v>147.43</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.147</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.1706</v>
+      </c>
+      <c r="K2" s="4">
+        <v>45720.7152777778</v>
+      </c>
+      <c r="L2" s="4">
+        <v>45720.7263888889</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+    <row r="3" hidden="1" spans="1:12">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
-        <v>54</v>
-      </c>
-      <c r="F3" s="1">
-        <v>576</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5.85</v>
-      </c>
-      <c r="H3" s="1">
-        <v>64.34</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.1083</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.1117</v>
-      </c>
-      <c r="K3" s="3">
-        <v>45706.0416666667</v>
-      </c>
-      <c r="L3" s="3">
-        <v>45706.0416666667</v>
+      <c r="E3" s="2">
+        <v>51.3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>648</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6.53</v>
+      </c>
+      <c r="H3" s="2">
+        <v>74.37</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.1273</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.1148</v>
+      </c>
+      <c r="K3" s="4">
+        <v>45721.0416666667</v>
+      </c>
+      <c r="L3" s="4">
+        <v>45721.0416666667</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+    <row r="4" hidden="1" spans="1:12">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>18</v>
       </c>
-      <c r="E4" s="1">
-        <v>81</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="2">
+        <v>76.95</v>
+      </c>
+      <c r="F4" s="2">
+        <v>972</v>
+      </c>
+      <c r="G4" s="2">
+        <v>32.05</v>
+      </c>
+      <c r="H4" s="2">
+        <v>319.56</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.4165</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.3288</v>
+      </c>
+      <c r="K4" s="4">
+        <v>45720.9666666667</v>
+      </c>
+      <c r="L4" s="4">
+        <v>45720.9666666667</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2">
+        <v>342</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4320</v>
+      </c>
+      <c r="G5" s="2">
+        <v>153.14</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1463.12</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.4478</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.3387</v>
+      </c>
+      <c r="K5" s="4">
+        <v>45721.1555555556</v>
+      </c>
+      <c r="L5" s="4">
+        <v>45721.1555555556</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2">
+        <v>256.5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3240</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44.04</v>
+      </c>
+      <c r="H6" s="2">
+        <v>467.38</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.1717</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.1443</v>
+      </c>
+      <c r="K6" s="4">
+        <v>45721.06875</v>
+      </c>
+      <c r="L6" s="4">
+        <v>45721.06875</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2">
+        <v>205.2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2592</v>
+      </c>
+      <c r="G7" s="2">
+        <v>63.62</v>
+      </c>
+      <c r="H7" s="2">
+        <v>610.26</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.3101</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.2354</v>
+      </c>
+      <c r="K7" s="4">
+        <v>45720.89375</v>
+      </c>
+      <c r="L7" s="4">
+        <v>45720.89375</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:12">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>288</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4320</v>
+      </c>
+      <c r="G8" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>90.95</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.0306</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.0211</v>
+      </c>
+      <c r="K8" s="4">
+        <v>45721.1736111111</v>
+      </c>
+      <c r="L8" s="4">
+        <v>45721.1736111111</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>288</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4320</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.0001</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.0001</v>
+      </c>
+      <c r="K9" s="4">
+        <v>45721.0027777778</v>
+      </c>
+      <c r="L9" s="4">
+        <v>45721.0027777778</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>68.4</v>
+      </c>
+      <c r="F10" s="2">
         <v>864</v>
       </c>
-      <c r="G4" s="1">
-        <v>15.21</v>
-      </c>
-      <c r="H4" s="1">
-        <v>171.2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.1877</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.1981</v>
-      </c>
-      <c r="K4" s="3">
-        <v>45706.0701388889</v>
-      </c>
-      <c r="L4" s="3">
-        <v>45706.0631944444</v>
+      <c r="G10" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="H10" s="2">
+        <v>13.67</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.0072</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.0158</v>
+      </c>
+      <c r="K10" s="4">
+        <v>45720.3368055556</v>
+      </c>
+      <c r="L10" s="4">
+        <v>45720.4583333333</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="11" hidden="1" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1">
-        <v>360</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3840</v>
-      </c>
-      <c r="G5" s="1">
-        <v>177.51</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1694.58</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.4931</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.4413</v>
-      </c>
-      <c r="K5" s="3">
-        <v>45706.1833333333</v>
-      </c>
-      <c r="L5" s="3">
-        <v>45706.1833333333</v>
-      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2">
+        <v>868.4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>864</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8.11</v>
+      </c>
+      <c r="G11" s="2">
+        <v>113.85</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.1185</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.1318</v>
+      </c>
+      <c r="J11" s="4">
+        <v>45720.3958333333</v>
+      </c>
+      <c r="K11" s="4">
+        <v>45720.3958333333</v>
+      </c>
+      <c r="L11" s="4"/>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="12" hidden="1" spans="1:12">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1">
-        <v>60</v>
-      </c>
-      <c r="E6" s="1">
-        <v>270</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2880</v>
-      </c>
-      <c r="G6" s="1">
-        <v>41.62</v>
-      </c>
-      <c r="H6" s="1">
-        <v>437.22</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.1541</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.1518</v>
-      </c>
-      <c r="K6" s="3">
-        <v>45706.0631944444</v>
-      </c>
-      <c r="L6" s="3">
-        <v>45706.0631944444</v>
+      <c r="D12" s="2">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>34.2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>432</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.0028</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.0068</v>
+      </c>
+      <c r="K12" s="4">
+        <v>45720.8784722222</v>
+      </c>
+      <c r="L12" s="4">
+        <v>45720.7694444444</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="13" hidden="1" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1">
-        <v>216</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2304</v>
-      </c>
-      <c r="G7" s="1">
-        <v>66.3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>626.56</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.3069</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.2719</v>
-      </c>
-      <c r="K7" s="3">
-        <v>45705.8138888889</v>
-      </c>
-      <c r="L7" s="3">
-        <v>45705.8138888889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
         <v>14</v>
       </c>
-      <c r="D8" s="1">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>360</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3840</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6.96</v>
-      </c>
-      <c r="H8" s="1">
-        <v>75.25</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.0193</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.0196</v>
-      </c>
-      <c r="K8" s="3">
-        <v>45706.1868055556</v>
-      </c>
-      <c r="L8" s="3">
-        <v>45706.1868055556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
-        <v>360</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3840</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.0001</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.0001</v>
-      </c>
-      <c r="K9" s="3">
-        <v>45706.0340277778</v>
-      </c>
-      <c r="L9" s="3">
-        <v>45706.0340277778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1">
-        <v>72</v>
-      </c>
-      <c r="F10" s="1">
-        <v>768</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="H10" s="1">
-        <v>14.13</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.0088</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.0184</v>
-      </c>
-      <c r="K10" s="3">
-        <v>45706.2277777778</v>
-      </c>
-      <c r="L10" s="3">
-        <v>45705.4375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
-        <v>72</v>
-      </c>
-      <c r="F11" s="1">
-        <v>768</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8.71</v>
-      </c>
-      <c r="H11" s="1">
-        <v>120.66</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.1209</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.1571</v>
-      </c>
-      <c r="K11" s="3">
-        <v>45705.6083333333</v>
-      </c>
-      <c r="L11" s="3">
-        <v>45705.6090277778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>36</v>
-      </c>
-      <c r="F12" s="1">
-        <v>384</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2.72</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.0028</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.0071</v>
-      </c>
-      <c r="K12" s="3">
-        <v>45705.9201388889</v>
-      </c>
-      <c r="L12" s="3">
-        <v>45705.7666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1">
-        <v>126</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1344</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10.88</v>
-      </c>
-      <c r="H13" s="1">
-        <v>100.51</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.0864</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.0748</v>
-      </c>
-      <c r="K13" s="3">
-        <v>45706.2236111111</v>
-      </c>
-      <c r="L13" s="3">
-        <v>45706.2236111111</v>
+      <c r="E13" s="2">
+        <v>119.7</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1512</v>
+      </c>
+      <c r="G13" s="2">
+        <v>13.23</v>
+      </c>
+      <c r="H13" s="2">
+        <v>137.64</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1105</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.091</v>
+      </c>
+      <c r="K13" s="4">
+        <v>45720.63125</v>
+      </c>
+      <c r="L13" s="4">
+        <v>45720.63125</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>16</v>
       </c>
-      <c r="E14" s="1">
-        <v>144</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1536</v>
-      </c>
-      <c r="G14" s="1">
-        <v>24.14</v>
-      </c>
-      <c r="H14" s="1">
-        <v>492.73</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.1676</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.3208</v>
-      </c>
-      <c r="K14" s="3">
-        <v>45706.2444444444</v>
-      </c>
-      <c r="L14" s="3">
-        <v>45706.0736111111</v>
+      <c r="E14" s="2">
+        <v>136.8</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1728</v>
+      </c>
+      <c r="G14" s="2">
+        <v>27.42</v>
+      </c>
+      <c r="H14" s="2">
+        <v>451.58</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.2004</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.2613</v>
+      </c>
+      <c r="K14" s="4">
+        <v>45721.2645833333</v>
+      </c>
+      <c r="L14" s="4">
+        <v>45720.4680555556</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>26</v>
       </c>
-      <c r="E15" s="1">
-        <v>117</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1248</v>
-      </c>
-      <c r="G15" s="1">
-        <v>4.14</v>
-      </c>
-      <c r="H15" s="1">
-        <v>122.7</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.0353</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.0983</v>
-      </c>
-      <c r="K15" s="3">
-        <v>45705.4590277778</v>
-      </c>
-      <c r="L15" s="3">
-        <v>45705.4590277778</v>
+      <c r="E15" s="2">
+        <v>111.15</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1404</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3.07</v>
+      </c>
+      <c r="H15" s="2">
+        <v>114.13</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.0276</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.0813</v>
+      </c>
+      <c r="K15" s="4">
+        <v>45720.5604166667</v>
+      </c>
+      <c r="L15" s="4">
+        <v>45720.5597222222</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>16</v>
       </c>
-      <c r="E16" s="1">
-        <v>720</v>
-      </c>
-      <c r="F16" s="1">
-        <v>7680</v>
-      </c>
-      <c r="G16" s="1">
-        <v>29.23</v>
-      </c>
-      <c r="H16" s="1">
-        <v>628.42</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.0406</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.0818</v>
-      </c>
-      <c r="K16" s="3">
-        <v>45705.4208333333</v>
-      </c>
-      <c r="L16" s="3">
-        <v>45705.6569444444</v>
+      <c r="E16" s="2">
+        <v>576</v>
+      </c>
+      <c r="F16" s="2">
+        <v>8640</v>
+      </c>
+      <c r="G16" s="2">
+        <v>30.54</v>
+      </c>
+      <c r="H16" s="2">
+        <v>726.18</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.053</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.084</v>
+      </c>
+      <c r="K16" s="4">
+        <v>45720.43125</v>
+      </c>
+      <c r="L16" s="4">
+        <v>45720.6875</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>8</v>
       </c>
-      <c r="E17" s="1">
-        <v>360</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3840</v>
-      </c>
-      <c r="G17" s="1">
-        <v>6.05</v>
-      </c>
-      <c r="H17" s="1">
-        <v>56.51</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="E17" s="2">
+        <v>288</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4320</v>
+      </c>
+      <c r="G17" s="2">
+        <v>9.28</v>
+      </c>
+      <c r="H17" s="2">
+        <v>88.7</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.0322</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.0205</v>
+      </c>
+      <c r="K17" s="4">
+        <v>45720.6402777778</v>
+      </c>
+      <c r="L17" s="4">
+        <v>45720.6402777778</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" spans="1:12">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>288</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4320</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="H18" s="2">
+        <v>72.54</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.0131</v>
+      </c>
+      <c r="J18" s="3">
         <v>0.0168</v>
       </c>
-      <c r="J17" s="2">
-        <v>0.0147</v>
-      </c>
-      <c r="K17" s="3">
-        <v>45705.8652777778</v>
-      </c>
-      <c r="L17" s="3">
-        <v>45705.8652777778</v>
+      <c r="K18" s="4">
+        <v>45720.7541666667</v>
+      </c>
+      <c r="L18" s="4">
+        <v>45720.7541666667</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
+    <row r="19" hidden="1" spans="1:12">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>576</v>
+      </c>
+      <c r="F19" s="2">
+        <v>8640</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>45720.3930555556</v>
+      </c>
+      <c r="L19" s="4">
+        <v>45720.2916666667</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D20" s="2">
         <v>8</v>
       </c>
-      <c r="E18" s="1">
-        <v>360</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3840</v>
-      </c>
-      <c r="G18" s="1">
-        <v>4.72</v>
-      </c>
-      <c r="H18" s="1">
-        <v>74.59</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.0131</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.0194</v>
-      </c>
-      <c r="K18" s="3">
-        <v>45705.6722222222</v>
-      </c>
-      <c r="L18" s="3">
-        <v>45705.6722222222</v>
+      <c r="E20" s="2">
+        <v>288</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4320</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>45720.2916666667</v>
+      </c>
+      <c r="L20" s="4">
+        <v>45720.2916666667</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="21" hidden="1" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1">
-        <v>720</v>
-      </c>
-      <c r="F19" s="1">
-        <v>7680</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>54</v>
+      </c>
+      <c r="F21" s="2">
+        <v>540</v>
+      </c>
+      <c r="G21" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K19" s="3">
-        <v>45705.30625</v>
-      </c>
-      <c r="L19" s="3">
-        <v>45705.2916666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1">
-        <v>360</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3840</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>45705.2916666667</v>
-      </c>
-      <c r="L20" s="3">
-        <v>45705.2916666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>90</v>
-      </c>
-      <c r="F21" s="1">
-        <v>960</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>45705.2916666667</v>
-      </c>
-      <c r="L21" s="3">
-        <v>45705.2916666667</v>
+      <c r="K21" s="4">
+        <v>45720.2916666667</v>
+      </c>
+      <c r="L21" s="4">
+        <v>45720.2916666667</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>16</v>
       </c>
-      <c r="E22" s="1">
-        <v>72</v>
-      </c>
-      <c r="F22" s="1">
-        <v>768</v>
-      </c>
-      <c r="G22" s="1">
-        <v>16.82</v>
-      </c>
-      <c r="H22" s="1">
-        <v>394.42</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.2336</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.5136</v>
-      </c>
-      <c r="K22" s="3">
-        <v>45706.0666666667</v>
-      </c>
-      <c r="L22" s="3">
-        <v>45706.0666666667</v>
+      <c r="E22" s="2">
+        <v>68.4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>864</v>
+      </c>
+      <c r="G22" s="2">
+        <v>17.12</v>
+      </c>
+      <c r="H22" s="2">
+        <v>396.7</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.2503</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.4591</v>
+      </c>
+      <c r="K22" s="4">
+        <v>45721.06875</v>
+      </c>
+      <c r="L22" s="4">
+        <v>45721.06875</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>70</v>
       </c>
-      <c r="E23" s="1">
-        <v>630</v>
-      </c>
-      <c r="F23" s="1">
-        <v>6720</v>
-      </c>
-      <c r="G23" s="1">
-        <v>408.76</v>
-      </c>
-      <c r="H23" s="1">
-        <v>4186.94</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.6488</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.6231</v>
-      </c>
-      <c r="K23" s="3">
-        <v>45706.0111111111</v>
-      </c>
-      <c r="L23" s="3">
-        <v>45706.0111111111</v>
+      <c r="E23" s="2">
+        <v>598.5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7560</v>
+      </c>
+      <c r="G23" s="2">
+        <v>393.34</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4338.21</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.6572</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.5738</v>
+      </c>
+      <c r="K23" s="4">
+        <v>45721.0618055556</v>
+      </c>
+      <c r="L23" s="4">
+        <v>45721.0034722222</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:L23" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="自用北京一区、二区"/>
+        <filter val="自用信创北京一区、二区"/>
+        <filter val="自用北京零区、三区"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
